--- a/biology/Botanique/Parc_William-Rappard/Parc_William-Rappard.xlsx
+++ b/biology/Botanique/Parc_William-Rappard/Parc_William-Rappard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc William-Rappard est un jardin public qui se situe à Genève, en Suisse. 
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie d'une suite de parcs contigus : parc Mon Repos, parc Moynier, Perle-du-Lac, parc Barton, et parc William-Rappard, sur la rive droite du lac Léman, en prolongation du quartier des Pâquis.
 À sa suite mais de l'autre côté de la rue de Lausanne se trouve le jardin botanique de Genève.
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc et sa villa datent du XVIIIe siècle. En 1921, la Confédération suisse achète le domaine et l’offre à la Société des Nations deux ans plus tard. En 1925, celle-ci y construit un palais de style florentin qui abrite alors le Bureau international du travail. Aujourd'hui, ce palais, appelé le centre William Rappard, accueille l'Organisation internationale du commerce.
 </t>
@@ -575,7 +591,9 @@
           <t>Contenu du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc William-Rappard accueille plusieurs arbres remarquables.
 </t>
